--- a/Microsoft Excel/test excel.xlsx
+++ b/Microsoft Excel/test excel.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8449E5-E54E-4D93-B540-C3E9D9D79904}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8239D4C-ED96-4A55-9314-D8FDAFA11953}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hidden" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -343,12 +344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D96C862-6B75-481B-9A07-E12850E9B222}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="129" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -362,13 +375,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E5A8B-28C4-4558-BE65-A4231D3BE9A8}">
   <dimension ref="C25"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="115" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
